--- a/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
+++ b/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E9F0F-57CB-410E-9AA2-2F68861E6802}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF41A285-79F5-4553-8592-664482A79828}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>TT</t>
   </si>
@@ -49,17 +50,6 @@
   </si>
   <si>
     <t>Chưa thực hiện</t>
-  </si>
-  <si>
-    <t>- Bổ sung trong file biểu mẫu import 2 cột: Ngày sản xuất và Ngày hết hạn.
-- Bổ sung trên giao diện list danh sách hàng hóa khi import xong 2 cột: Ngày sản xuất và Ngày hết hạn.
-- Lưu vào database dữ liệu của 2 cột Ngày sản xuất và Ngày hết hạn.</t>
-  </si>
-  <si>
-    <t>mjr_stock_goods.produce_date
-mjr_stock_goods.expire_date
-mjr_stock_goods_serial.produce_date
-mjr_stock_goods_serial.expire_date</t>
   </si>
   <si>
     <t>Xuất kho</t>
@@ -115,13 +105,85 @@
   </si>
   <si>
     <t>- Bổ sung thêm trường "Ngày sản xuất" khi cập nhật thông tin tồn kho.</t>
+  </si>
+  <si>
+    <r>
+      <t>- Bổ sung trong file biểu mẫu import 2 cột: Ngày sản xuất và Ngày hết hạn.
+- Bổ sung trên giao diện list danh sách hàng hóa khi import xong 2 cột: Ngày sản xuất và Ngày hết hạn.
+- Lưu vào database:
++ Bảng chi tiết hàng hóa của giao dịch (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mjr_stock_trans_detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) và bảng chi tiết hàng tồn kho(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mjr_stock_goods, mjr_stock_goods_serial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>): 2 cột Ngày sản xuất và Ngày hết hạn và trường Ghi chú trên form.</t>
+    </r>
+  </si>
+  <si>
+    <t>mjr_stock_goods.produce_date
+mjr_stock_goods.expire_date
+mjr_stock_goods.description
+mjr_stock_goods_serial.produce_date
+mjr_stock_goods_serial.expire_date
+mjr_stock_goods_serial.description
+mjr_stock_trans_detail.produce_date
+mjr_stock_trans_detail.expire_date
+mjr_stock_trans_detail.description</t>
+  </si>
+  <si>
+    <t>Đã hoàn thành</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>File template sửa đổi:
+Thong_tin_chitiet_giao_dich.xlsx
+Thong_tin_ds_giao_dich.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +208,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +238,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,11 +268,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -206,10 +299,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,34 +653,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
     <col min="3" max="3" width="48.08984375" customWidth="1"/>
-    <col min="4" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -590,40 +698,44 @@
         <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -631,31 +743,35 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="H5" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -663,64 +779,67 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
+++ b/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF41A285-79F5-4553-8592-664482A79828}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9D8E6-DF6F-44CA-A128-D78D9025DB29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>TT</t>
   </si>
@@ -62,9 +61,6 @@
   </si>
   <si>
     <t>Thông tin giao dịch xuất/nhập kho</t>
-  </si>
-  <si>
-    <t>- Bổ sung thêm dòng "Tổng trọng lượng:        (Kg)" bên dưới dòng tổng tiền bằng chữ. Tự động tính ra tổng trọng lượng của phiếu xuất kho/nhập kho.</t>
   </si>
   <si>
     <t>In phiếu xuất/nhập kho</t>
@@ -177,6 +173,14 @@
     <t>File template sửa đổi:
 Thong_tin_chitiet_giao_dich.xlsx
 Thong_tin_ds_giao_dich.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Bổ sung thêm dòng "Tổng trọng lượng:        (Kg)" bên dưới dòng Tổng tiền bằng chữ (tự động tính ra tổng trọng lượng của phiếu xuất kho/nhập kho)
+- Bổ sung thêm dòng "Khách hàng nhận:" bên dưới dòng "Đối tác gửi hàng". </t>
+  </si>
+  <si>
+    <t>mjr_stock_trans.partner_name
+mjr_stock_trans_detail.weight</t>
   </si>
 </sst>
 </file>
@@ -300,12 +304,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -315,6 +313,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,14 +659,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="48.08984375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15.90625" customWidth="1"/>
@@ -672,16 +676,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -698,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>5</v>
@@ -711,11 +715,11 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="9" t="s">
@@ -727,51 +731,53 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>30</v>
+      <c r="H5" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -779,14 +785,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>12</v>
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
@@ -820,20 +826,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1"/>
     </row>

--- a/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
+++ b/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9D8E6-DF6F-44CA-A128-D78D9025DB29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C615732-D040-4D5E-A430-5C805C3CCA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,12 +175,13 @@
 Thong_tin_ds_giao_dich.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">- Bổ sung thêm dòng "Tổng trọng lượng:        (Kg)" bên dưới dòng Tổng tiền bằng chữ (tự động tính ra tổng trọng lượng của phiếu xuất kho/nhập kho)
-- Bổ sung thêm dòng "Khách hàng nhận:" bên dưới dòng "Đối tác gửi hàng". </t>
-  </si>
-  <si>
     <t>mjr_stock_trans.partner_name
 mjr_stock_trans_detail.weight</t>
+  </si>
+  <si>
+    <t>- Bổ sung thêm dòng "Tổng trọng lượng:        (Kg)" bên dưới dòng Tổng tiền bằng chữ (tự động tính ra tổng trọng lượng của phiếu xuất kho/nhập kho)
+- Bổ sung thêm dòng "Khách hàng nhận:" bên dưới dòng "Đối tác gửi hàng". 
+- Lấy thông tin "Theo yêu cầu nhập số" hoặc "Theo yêu cầu xuất số" trong bảng stock_trans.order_code</t>
   </si>
 </sst>
 </file>
@@ -659,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,7 +732,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,14 +740,14 @@
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>19</v>

--- a/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
+++ b/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C615732-D040-4D5E-A430-5C805C3CCA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FED8C4-4BF9-44E8-87F3-1B0DE02BE0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,13 +175,14 @@
 Thong_tin_ds_giao_dich.xlsx</t>
   </si>
   <si>
-    <t>mjr_stock_trans.partner_name
-mjr_stock_trans_detail.weight</t>
-  </si>
-  <si>
     <t>- Bổ sung thêm dòng "Tổng trọng lượng:        (Kg)" bên dưới dòng Tổng tiền bằng chữ (tự động tính ra tổng trọng lượng của phiếu xuất kho/nhập kho)
 - Bổ sung thêm dòng "Khách hàng nhận:" bên dưới dòng "Đối tác gửi hàng". 
 - Lấy thông tin "Theo yêu cầu nhập số" hoặc "Theo yêu cầu xuất số" trong bảng stock_trans.order_code</t>
+  </si>
+  <si>
+    <t>mjr_stock_trans.partner_name
+mjr_stock_trans.order_code
+mjr_stock_trans_detail.weight</t>
   </si>
 </sst>
 </file>
@@ -661,7 +662,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,14 +741,14 @@
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>19</v>

--- a/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
+++ b/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FED8C4-4BF9-44E8-87F3-1B0DE02BE0E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40DE219-FCC0-42B2-B07C-4B3A11FA0DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,22 +662,22 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="48.08984375" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -733,7 +733,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -755,7 +755,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -823,7 +823,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>

--- a/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
+++ b/Document/5.Reference/191003_ThanhThuy_DanhSachSuaDoi_NoiBo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9D8E6-DF6F-44CA-A128-D78D9025DB29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40DE219-FCC0-42B2-B07C-4B3A11FA0DFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,11 +175,13 @@
 Thong_tin_ds_giao_dich.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">- Bổ sung thêm dòng "Tổng trọng lượng:        (Kg)" bên dưới dòng Tổng tiền bằng chữ (tự động tính ra tổng trọng lượng của phiếu xuất kho/nhập kho)
-- Bổ sung thêm dòng "Khách hàng nhận:" bên dưới dòng "Đối tác gửi hàng". </t>
+    <t>- Bổ sung thêm dòng "Tổng trọng lượng:        (Kg)" bên dưới dòng Tổng tiền bằng chữ (tự động tính ra tổng trọng lượng của phiếu xuất kho/nhập kho)
+- Bổ sung thêm dòng "Khách hàng nhận:" bên dưới dòng "Đối tác gửi hàng". 
+- Lấy thông tin "Theo yêu cầu nhập số" hoặc "Theo yêu cầu xuất số" trong bảng stock_trans.order_code</t>
   </si>
   <si>
     <t>mjr_stock_trans.partner_name
+mjr_stock_trans.order_code
 mjr_stock_trans_detail.weight</t>
   </si>
 </sst>
@@ -659,23 +661,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="48.08984375" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="32.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -687,7 +689,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -711,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -731,7 +733,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -753,7 +755,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -777,7 +779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -799,7 +801,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -821,7 +823,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
